--- a/Chapter4_Additional_Files/AdditionalFile1_SANTA.xlsx
+++ b/Chapter4_Additional_Files/AdditionalFile1_SANTA.xlsx
@@ -12430,20 +12430,6 @@
   </si>
   <si>
     <r>
-      <t># ImmuneSignatures</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: signatures from the C7 ImmuneSigDB collection of immunologic gene sets from the Molecular Signatures Database (MSigDB, v6.0: http://www.gsea-msigdb.org/gsea/downloads_archive.jsp)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Additional file 1: results of SANTA enrichment analysis (</t>
     </r>
     <r>
@@ -12455,7 +12441,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>c</t>
+      <t xml:space="preserve">c </t>
     </r>
     <r>
       <rPr>
@@ -12465,7 +12451,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>=0.85)</t>
+      <t>= 0.85)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ImmuneSignatures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: signatures from the C7 ImmuneSigDB collection of immunologic gene sets from the Molecular Signatures Database (MSigDB, v6.0: http://www.gsea-msigdb.org/gsea/downloads_archive.jsp)</t>
     </r>
   </si>
 </sst>
@@ -13333,12 +13333,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">

--- a/Chapter4_Additional_Files/AdditionalFile1_SANTA.xlsx
+++ b/Chapter4_Additional_Files/AdditionalFile1_SANTA.xlsx
@@ -12430,6 +12430,20 @@
   </si>
   <si>
     <r>
+      <t>ImmuneSignatures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: signatures from the C7 ImmuneSigDB collection of immunologic gene sets from the Molecular Signatures Database (MSigDB, v6.0: http://www.gsea-msigdb.org/gsea/downloads_archive.jsp)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Additional file 1: results of SANTA enrichment analysis (</t>
     </r>
     <r>
@@ -12451,21 +12465,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>= 0.85)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ImmuneSignatures</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: signatures from the C7 ImmuneSigDB collection of immunologic gene sets from the Molecular Signatures Database (MSigDB, v6.0: http://www.gsea-msigdb.org/gsea/downloads_archive.jsp)</t>
+      <t>= 0.75)</t>
     </r>
   </si>
 </sst>
@@ -13333,12 +13333,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
